--- a/outcome.xlsx
+++ b/outcome.xlsx
@@ -540,1490 +540,1490 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.552608208068877</v>
+        <v>0.5474236047310738</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4142678922131984</v>
+        <v>0.4043260597500164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.408047138318162</v>
+        <v>0.4020172703720588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4510339229832195</v>
+        <v>0.4436155865389307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4910643192951911</v>
+        <v>0.4875893234360019</v>
       </c>
       <c r="F2" t="n">
-        <v>0.423609136254344</v>
+        <v>0.4148634720009437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4172383277210054</v>
+        <v>0.4111961839773998</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4741132566599132</v>
+        <v>0.4649771727073432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4206942379114177</v>
+        <v>0.4190412048199675</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4094276196987976</v>
+        <v>0.4015480865243317</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5913450304708903</v>
+        <v>0.5810810361801232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5910708246976569</v>
+        <v>0.5779867579821309</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4422878997049176</v>
+        <v>0.4381495349012476</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4686138565368345</v>
+        <v>0.4611444626630323</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4573128395194555</v>
+        <v>0.4599033563715582</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4068664490128354</v>
+        <v>0.4005625528516547</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.443747292947422</v>
+        <v>0.4433359321062382</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4695804493913918</v>
+        <v>0.4632016244313567</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4723486602024797</v>
+        <v>0.4612973428302977</v>
       </c>
       <c r="T2" t="n">
-        <v>0.466794329435788</v>
+        <v>0.5057743334474509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4991325551147194</v>
+        <v>0.495694807573509</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4209199574747208</v>
+        <v>0.4155006730349401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4250442214087706</v>
+        <v>0.4201646931046475</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4233021280393979</v>
+        <v>0.4192307910580594</v>
       </c>
       <c r="E3" t="n">
-        <v>0.427601480514672</v>
+        <v>0.4254491235551544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4191877470867408</v>
+        <v>0.415000792556932</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4391503234290756</v>
+        <v>0.4328980766234794</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4256989651319412</v>
+        <v>0.4226135095185848</v>
       </c>
       <c r="I3" t="n">
-        <v>0.426475456099253</v>
+        <v>0.4221897914650835</v>
       </c>
       <c r="J3" t="n">
-        <v>0.41819260276695</v>
+        <v>0.4140636692215262</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5037729499171009</v>
+        <v>0.4965264654031827</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5322253403076322</v>
+        <v>0.5255588756013567</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4135556835722997</v>
+        <v>0.4096021476390135</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4259720323712247</v>
+        <v>0.4223259120785909</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4185058313634616</v>
+        <v>0.4152323162048348</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4375487362902434</v>
+        <v>0.4336462839194212</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4372650949084943</v>
+        <v>0.4331912424141294</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5059102604239997</v>
+        <v>0.5044302164505481</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4833016436387989</v>
+        <v>0.4790339072329325</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5201352666458258</v>
+        <v>0.5133301857958583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.610933785810559</v>
+        <v>0.6639157374809475</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6103097166312869</v>
+        <v>0.6020785856084684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6357213983556358</v>
+        <v>0.627896356208133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5670261773982433</v>
+        <v>0.5457625865024871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.692530591026449</v>
+        <v>0.6573562762427811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5761942391999637</v>
+        <v>0.5986742373653622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6433609227245264</v>
+        <v>0.6173241305676284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6627576137018223</v>
+        <v>0.6354927170106283</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6210434224792397</v>
+        <v>0.60879553882217</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6314300596186256</v>
+        <v>0.6125871450417493</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6280386222090685</v>
+        <v>0.618375416205723</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6205995785903848</v>
+        <v>0.6086492144348482</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4567193504980083</v>
+        <v>0.4641026253426966</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5824523139025527</v>
+        <v>0.5535816757187429</v>
       </c>
       <c r="O4" t="n">
-        <v>0.551533103510629</v>
+        <v>0.5468889327876243</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5353736857538154</v>
+        <v>0.5375588293611889</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5291514459876221</v>
+        <v>0.5310183135158674</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5807717298402023</v>
+        <v>0.6062579052206464</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5248871470052756</v>
+        <v>0.5583345747578501</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4902178748827799</v>
+        <v>0.518366576353141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4138127998770622</v>
+        <v>0.5370677328247752</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4929096202724723</v>
+        <v>0.4577330133536673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4959682475638367</v>
+        <v>0.5079768987764044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4663428858102119</v>
+        <v>0.4670057582249965</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5077638789796541</v>
+        <v>0.4904011856352557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4527934148879649</v>
+        <v>0.4897378721328454</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4710592922980801</v>
+        <v>0.4632589634198629</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4783963477632373</v>
+        <v>0.4994899070649733</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4482826263752839</v>
+        <v>0.4652058714484038</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4583253964824024</v>
+        <v>0.4717837331201826</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5492022893764361</v>
+        <v>0.5464119702237328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5588664294224371</v>
+        <v>0.5542817954131412</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4790813914790703</v>
+        <v>0.4753344692713639</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4656911316172519</v>
+        <v>0.4665372707539127</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4692668208943525</v>
+        <v>0.4639260412757932</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4495232515723145</v>
+        <v>0.4437357098135785</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4718817188871102</v>
+        <v>0.4542488070079588</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4521696653568597</v>
+        <v>0.4929681824526638</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4930382891074955</v>
+        <v>0.4920148659889293</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4831778841603013</v>
+        <v>0.4789748025806058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4334786094436624</v>
+        <v>0.5035515069854488</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4023150803862808</v>
+        <v>0.4026273454789409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4165504129186026</v>
+        <v>0.4254546618162352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4278147177204229</v>
+        <v>0.4146794704870684</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4870412663485267</v>
+        <v>0.4694906276762947</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4268761483550328</v>
+        <v>0.4372474843463058</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4240061144700582</v>
+        <v>0.4129548001723231</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4779725859689775</v>
+        <v>0.4608766558577732</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4196230223905861</v>
+        <v>0.4113172217447878</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4092136536912688</v>
+        <v>0.4183331312843778</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5198169028617677</v>
+        <v>0.5105000281745252</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5395854578123996</v>
+        <v>0.5163143457526915</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4485643156386636</v>
+        <v>0.4624801457359494</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4686732560463296</v>
+        <v>0.4592363597278039</v>
       </c>
       <c r="O6" t="n">
-        <v>0.463245995652351</v>
+        <v>0.4475532571188832</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3937652206041392</v>
+        <v>0.4290778473897908</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4307702347535702</v>
+        <v>0.4259426498589676</v>
       </c>
       <c r="R6" t="n">
-        <v>0.434225044782997</v>
+        <v>0.4436104071329881</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5309157198173432</v>
+        <v>0.5345201398251459</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4696074991195748</v>
+        <v>0.4722364855654053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5142794215111973</v>
+        <v>0.5969208018779448</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4316870514391042</v>
+        <v>0.4860529287193327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4570276780441273</v>
+        <v>0.5146103639835123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4661089231312338</v>
+        <v>0.4932988503612561</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5114643664951474</v>
+        <v>0.5133647267523186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4288882631697873</v>
+        <v>0.5141464598817855</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4743541192051374</v>
+        <v>0.5198189246487394</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4909687410393009</v>
+        <v>0.5278862847185244</v>
       </c>
       <c r="I7" t="n">
-        <v>0.456110951548131</v>
+        <v>0.5233963373923832</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4343212663896919</v>
+        <v>0.4589604554244777</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5049624646068198</v>
+        <v>0.6104372012356487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5035651665375045</v>
+        <v>0.5887563877017317</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4367652266686959</v>
+        <v>0.5046613717933258</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4882379507788465</v>
+        <v>0.5270587930723764</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4890188849592004</v>
+        <v>0.5195805690359867</v>
       </c>
       <c r="P7" t="n">
-        <v>0.395427790555925</v>
+        <v>0.489447358447458</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.490769170631919</v>
+        <v>0.4776820747899395</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4917176135496561</v>
+        <v>0.5017087141579791</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4857384634948266</v>
+        <v>0.5269138614589145</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4473194823349314</v>
+        <v>0.5388582236049761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5624959819935538</v>
+        <v>0.5484086879939601</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4151512550663206</v>
+        <v>0.4201043312908262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4275403156682631</v>
+        <v>0.4369724646771717</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4550140000959</v>
+        <v>0.4568503724392978</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4919142000004961</v>
+        <v>0.495488871588055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4211199775765664</v>
+        <v>0.4340299890919204</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4519509913617126</v>
+        <v>0.4591630784173985</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4587205647264773</v>
+        <v>0.4693330752061673</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4304925724845171</v>
+        <v>0.4345652181585001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4188054839661077</v>
+        <v>0.4325914599301441</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4267251494659349</v>
+        <v>0.469166064487656</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4346610232372597</v>
+        <v>0.4744639959982984</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4728183694017107</v>
+        <v>0.4853740163510266</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4295627040049252</v>
+        <v>0.447103724269606</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4607591470999251</v>
+        <v>0.4829723277220896</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4409332651162189</v>
+        <v>0.4524601510286987</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4365273931657159</v>
+        <v>0.4568387449730721</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4413350303426807</v>
+        <v>0.4573188122982595</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4966157882498343</v>
+        <v>0.5041688953973228</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4818789126783611</v>
+        <v>0.5148415897192925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4600745048997831</v>
+        <v>0.4621813009380805</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4053632677276494</v>
+        <v>0.3903861872220716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3855073304622306</v>
+        <v>0.3818174240567664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.407881179684277</v>
+        <v>0.3816337854770413</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5205370482193797</v>
+        <v>0.511025567394444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3704445786477452</v>
+        <v>0.3534758095998918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4631535823624623</v>
+        <v>0.4456393018776299</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4176403689655077</v>
+        <v>0.3982810720714743</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4052696140155229</v>
+        <v>0.3842142760589708</v>
       </c>
       <c r="J9" t="n">
-        <v>0.469308022389842</v>
+        <v>0.4539255871813078</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5050030268535961</v>
+        <v>0.4836110776798455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5366593231014397</v>
+        <v>0.5072682016801188</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3829522090473469</v>
+        <v>0.3791150170665254</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4368136842045722</v>
+        <v>0.4169594878438737</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4194357946326529</v>
+        <v>0.4033037159215044</v>
       </c>
       <c r="P9" t="n">
-        <v>0.397630408912902</v>
+        <v>0.3654335195664032</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4603519977399783</v>
+        <v>0.4495194136307313</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4199889795473033</v>
+        <v>0.392876259839142</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4521324943619137</v>
+        <v>0.4486044466415852</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4370587203121496</v>
+        <v>0.4343793610592261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6045239181082601</v>
+        <v>0.5890649995610915</v>
       </c>
       <c r="B10" t="n">
-        <v>0.517034787272785</v>
+        <v>0.4975662297994389</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6097142298059481</v>
+        <v>0.5965109974468212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5937572195588046</v>
+        <v>0.5817015382757817</v>
       </c>
       <c r="E10" t="n">
-        <v>0.614746739324066</v>
+        <v>0.5953914845782229</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5634137129802166</v>
+        <v>0.5448426536979702</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6000886626001788</v>
+        <v>0.5819845306138802</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6192909604137037</v>
+        <v>0.6084208951802633</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5943687189211834</v>
+        <v>0.576811478022822</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5582409051125696</v>
+        <v>0.5573359832616446</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5830258027325415</v>
+        <v>0.569439365197844</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5830258027325415</v>
+        <v>0.569439365197844</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4074023422546366</v>
+        <v>0.391141060210638</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6287406100720003</v>
+        <v>0.6160913698809849</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6284122052056182</v>
+        <v>0.6159544616456146</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6409788152196388</v>
+        <v>0.6221115348558965</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4549443142044832</v>
+        <v>0.4462250371616177</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5687478057771365</v>
+        <v>0.5582872818089715</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3977731912262366</v>
+        <v>0.41884823462441</v>
       </c>
       <c r="T10" t="n">
-        <v>0.444245841647975</v>
+        <v>0.4420101760862349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5250507793810696</v>
+        <v>0.5240630179631069</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5100888668201666</v>
+        <v>0.5011837765869583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4844103738390066</v>
+        <v>0.4729251360197116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.507235828417923</v>
+        <v>0.494002313306444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5361126403311129</v>
+        <v>0.5266081347666036</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4844103738390066</v>
+        <v>0.4729251360197116</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5009405282054584</v>
+        <v>0.4893248773813777</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5203237359704994</v>
+        <v>0.5122909908345199</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5183716766479709</v>
+        <v>0.483283447804412</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4870186548871562</v>
+        <v>0.4729251360197116</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5335386299926448</v>
+        <v>0.5264061692500304</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5155933597132971</v>
+        <v>0.5272811386791452</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4471976919868186</v>
+        <v>0.4319768990258146</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5125077350609215</v>
+        <v>0.5116418959475673</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5120307941079454</v>
+        <v>0.5157387329890643</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5067186559630512</v>
+        <v>0.4885293753220654</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5264058901556758</v>
+        <v>0.509521471625932</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5391736140263699</v>
+        <v>0.530145186608003</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4904690350552509</v>
+        <v>0.5075890425555887</v>
       </c>
       <c r="T11" t="n">
-        <v>0.454312505632423</v>
+        <v>0.4907902218269166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4498633681772068</v>
+        <v>0.520848982664371</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4399852458266942</v>
+        <v>0.4343257563668053</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4438896057158708</v>
+        <v>0.4400021854138597</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4978329523046834</v>
+        <v>0.4899889098983636</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4524420419043292</v>
+        <v>0.4498535810591399</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4519829316828203</v>
+        <v>0.442818155918456</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4072761662039609</v>
+        <v>0.4399606546609047</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4636237888309227</v>
+        <v>0.4599700627300989</v>
       </c>
       <c r="I12" t="n">
-        <v>0.48017026196012</v>
+        <v>0.4641348582539646</v>
       </c>
       <c r="J12" t="n">
-        <v>0.435162720314235</v>
+        <v>0.4238022365922386</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4129993196327858</v>
+        <v>0.4721722775491645</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4718015108683807</v>
+        <v>0.4671820173419505</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4294804814593626</v>
+        <v>0.4189589360662266</v>
       </c>
       <c r="N12" t="n">
-        <v>0.485629387815115</v>
+        <v>0.4808782803532878</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4865308791711649</v>
+        <v>0.5171067144516861</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4360468400068812</v>
+        <v>0.4324085732691832</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4434226077563241</v>
+        <v>0.4678489389416685</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4865896400481574</v>
+        <v>0.4757322680938919</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5230409735291197</v>
+        <v>0.5173614045175366</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5324831824290903</v>
+        <v>0.527598897149381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6241565337472229</v>
+        <v>0.6156399917045358</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4918058907989999</v>
+        <v>0.4856082944437494</v>
       </c>
       <c r="C13" t="n">
-        <v>0.513917221411501</v>
+        <v>0.5062381327114299</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5650935978330037</v>
+        <v>0.5580880073343037</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5517457725640433</v>
+        <v>0.5497090968278388</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5564998781724217</v>
+        <v>0.5526955798610752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5677917266315282</v>
+        <v>0.5618860500192571</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6097715494701138</v>
+        <v>0.6017861367929975</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5584971540628616</v>
+        <v>0.5539409040940411</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5541133877785768</v>
+        <v>0.5525030224911361</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6446891707660385</v>
+        <v>0.6356598330268971</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6395025184051945</v>
+        <v>0.6303311672906678</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5441370453169482</v>
+        <v>0.5382464363818952</v>
       </c>
       <c r="N13" t="n">
-        <v>0.53131499951253</v>
+        <v>0.5229165781227594</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5352480714343906</v>
+        <v>0.5229165781227594</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5278388295849307</v>
+        <v>0.5274250800031935</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5003256812614647</v>
+        <v>0.5093905008204467</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5543320445160174</v>
+        <v>0.5488990888406893</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5492261909351429</v>
+        <v>0.5400302046998144</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5867594617536879</v>
+        <v>0.5803069131177069</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5900859831013486</v>
+        <v>0.5674231731672411</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5475654672334028</v>
+        <v>0.5329326224398609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5736250707012247</v>
+        <v>0.5499296433281433</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6322596409618041</v>
+        <v>0.5924032653556431</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5797584547143797</v>
+        <v>0.6186517958384261</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5167928888209468</v>
+        <v>0.5407525695341316</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6491019751896159</v>
+        <v>0.6161611318619857</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6135499491960333</v>
+        <v>0.5801586444868533</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6305011505276013</v>
+        <v>0.605843691770426</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6282386096260715</v>
+        <v>0.5963617278067178</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6874884837635422</v>
+        <v>0.7123046343596412</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7026436634303513</v>
+        <v>0.7107739175472697</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4666687188080578</v>
+        <v>0.4540991734919828</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5615105900560728</v>
+        <v>0.5210208354470535</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5616409025080492</v>
+        <v>0.5218543752634053</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5624689770080521</v>
+        <v>0.5364391494754814</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4988020334794234</v>
+        <v>0.4797340432258697</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5536716494511885</v>
+        <v>0.5191832954028202</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4393068353697577</v>
+        <v>0.452285897652024</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5323587973029601</v>
+        <v>0.520683349068353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.383465689198335</v>
+        <v>0.4493074703053207</v>
       </c>
       <c r="B15" t="n">
-        <v>0.421823144268391</v>
+        <v>0.3829260587385959</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3950921654946742</v>
+        <v>0.374016987080533</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4273053537457809</v>
+        <v>0.4135450146093413</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3853308818656649</v>
+        <v>0.3918107021394867</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4246105282864894</v>
+        <v>0.3957751827070012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4123544656312366</v>
+        <v>0.3936314788475959</v>
       </c>
       <c r="H15" t="n">
-        <v>0.407663668882436</v>
+        <v>0.3988541003240186</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3874122051470135</v>
+        <v>0.3791749354932813</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3878159562584704</v>
+        <v>0.3804734239762755</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4651321696194104</v>
+        <v>0.4288242015898515</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4789864073735088</v>
+        <v>0.4627114136615893</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4144485384824815</v>
+        <v>0.4143620927000255</v>
       </c>
       <c r="N15" t="n">
-        <v>0.393055646580294</v>
+        <v>0.3728570857244162</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3983983948279886</v>
+        <v>0.3757384643087305</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3980918620727749</v>
+        <v>0.3787423315842441</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4366494257491468</v>
+        <v>0.4085834210218529</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4134735132621914</v>
+        <v>0.4032654585518036</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4871265198084133</v>
+        <v>0.4602649375595768</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4924258155672352</v>
+        <v>0.4670264909889719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6562959752304958</v>
+        <v>0.6104575664786922</v>
       </c>
       <c r="B16" t="n">
-        <v>0.576152606990792</v>
+        <v>0.541689869999498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6149609749649905</v>
+        <v>0.566992126864506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6000998212298712</v>
+        <v>0.5729330921318573</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6030177031532378</v>
+        <v>0.5615166933193808</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6095426163539168</v>
+        <v>0.5583359531518087</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6053039115429388</v>
+        <v>0.5689433914557318</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6564879679607014</v>
+        <v>0.6151363075652088</v>
       </c>
       <c r="I16" t="n">
-        <v>0.588388720130227</v>
+        <v>0.5471707497338661</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5607407461524914</v>
+        <v>0.5386526714928714</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6422146135898747</v>
+        <v>0.5945961032659137</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6556494638570839</v>
+        <v>0.5928663094837365</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4501233226110867</v>
+        <v>0.4354083510634244</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6594476394083801</v>
+        <v>0.6333470122407988</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6627139710002848</v>
+        <v>0.6288741005257198</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5298711677110659</v>
+        <v>0.5301841407464948</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5674742940113796</v>
+        <v>0.5497209941226423</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6433246184546018</v>
+        <v>0.6101141470043684</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4679122881155005</v>
+        <v>0.4634165369514615</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4991742671575324</v>
+        <v>0.4956791699980606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6486626959970964</v>
+        <v>0.6476793600833602</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6040976933153063</v>
+        <v>0.5854348292278517</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5956717641937739</v>
+        <v>0.5859581453767676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5917379015966474</v>
+        <v>0.5767298973397882</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6228296274908833</v>
+        <v>0.6160778449649243</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6106143613053583</v>
+        <v>0.6028379557819472</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6260880922704153</v>
+        <v>0.614667481347437</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6263752998410174</v>
+        <v>0.6210785447065735</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6121096474966199</v>
+        <v>0.6134333000530463</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5974174163835291</v>
+        <v>0.5914188133530432</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6300889602120249</v>
+        <v>0.6296463370333906</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6348225339990036</v>
+        <v>0.6322297326456885</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5206439848336751</v>
+        <v>0.5267655715322915</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5416782888781653</v>
+        <v>0.5653430345696688</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5470048836179029</v>
+        <v>0.5612483938787365</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5985769317999001</v>
+        <v>0.5967034828731967</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.604449961864127</v>
+        <v>0.6014154275218521</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5846940788992772</v>
+        <v>0.6015194247044334</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5415210020024069</v>
+        <v>0.5621371183696696</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5684177806687964</v>
+        <v>0.5735635312385894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6153287894146854</v>
+        <v>0.5864117345853598</v>
       </c>
       <c r="B18" t="n">
-        <v>0.476558597708157</v>
+        <v>0.4513049572086217</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5501470951762244</v>
+        <v>0.5380362899784988</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5672372127021945</v>
+        <v>0.5369258803266119</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5838943664401272</v>
+        <v>0.5494683731624463</v>
       </c>
       <c r="F18" t="n">
-        <v>0.581947871295634</v>
+        <v>0.5556484078285099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5810126865067293</v>
+        <v>0.5816743437716906</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5580311185900703</v>
+        <v>0.5272293866289204</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6363435062920585</v>
+        <v>0.5945528925317681</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5633482045639086</v>
+        <v>0.5336408326755742</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5710668558395472</v>
+        <v>0.5514719963357586</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5606643700086301</v>
+        <v>0.5442949056547853</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4906823148482795</v>
+        <v>0.476269482888821</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5032573436897737</v>
+        <v>0.4930242642874378</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5216572084052404</v>
+        <v>0.501991600711758</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5423088100037111</v>
+        <v>0.5135353153682106</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5128219851034742</v>
+        <v>0.4727052672733947</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5922785080907628</v>
+        <v>0.551163874575063</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4584136650413024</v>
+        <v>0.4473321545721157</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5044703428562619</v>
+        <v>0.4837500086750408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6864775318066082</v>
+        <v>0.6672413074051</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5425735009829659</v>
+        <v>0.5642726810660981</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5627773485499892</v>
+        <v>0.5743339192209179</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6721729125969872</v>
+        <v>0.6593645211866234</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6807574179563683</v>
+        <v>0.6543363715040438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6680196187156926</v>
+        <v>0.6528145185069414</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6726105970084962</v>
+        <v>0.657467831152834</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6775172888729968</v>
+        <v>0.6649974431606724</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6598732672313815</v>
+        <v>0.6523644037480872</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6760907366417662</v>
+        <v>0.6630167499820745</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6739070274167761</v>
+        <v>0.6968479144501846</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6696480063016556</v>
+        <v>0.6957859067483753</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4876208388183276</v>
+        <v>0.5305963247393558</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5470556918569172</v>
+        <v>0.5608442425122536</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5485426238131828</v>
+        <v>0.5630773254962728</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6593163671524362</v>
+        <v>0.6554541022646355</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5544975689200674</v>
+        <v>0.5788352199242058</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5889916424655023</v>
+        <v>0.5995351718472752</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4651464017010001</v>
+        <v>0.5053500106837682</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5294558494540481</v>
+        <v>0.5706293548594865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6732212164473571</v>
+        <v>0.6741330007916806</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5931486692522081</v>
+        <v>0.5851977555888518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6521177157118579</v>
+        <v>0.6351379685810258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6599593133248705</v>
+        <v>0.6507086673196401</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6992798626208485</v>
+        <v>0.6904406606335617</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6465836132064946</v>
+        <v>0.6413795210198618</v>
       </c>
       <c r="G20" t="n">
-        <v>0.666160097788135</v>
+        <v>0.6613451512317825</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7091787200467525</v>
+        <v>0.6929491159527079</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6654372045700337</v>
+        <v>0.6575093609107807</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6594860315302312</v>
+        <v>0.6467662967709819</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7051432564143916</v>
+        <v>0.7194575613936155</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7061674915011337</v>
+        <v>0.7185836832283428</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4259518814748676</v>
+        <v>0.4183173426715068</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5618521706127724</v>
+        <v>0.5544581592102643</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5558223170629781</v>
+        <v>0.5507765142297527</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6633977131072082</v>
+        <v>0.6439340831072777</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5749072704540934</v>
+        <v>0.5686543761236965</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5570714024537194</v>
+        <v>0.5516959788935627</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5040660170551989</v>
+        <v>0.5351606134980703</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5029164425606057</v>
+        <v>0.504321003920339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6943326392738494</v>
+        <v>0.7431812389574</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6796855617362717</v>
+        <v>0.6115224783053563</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7034063194450533</v>
+        <v>0.6835452516333083</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5337794934162663</v>
+        <v>0.7035914170652238</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6942636935144922</v>
+        <v>0.6420686540035272</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7043062712153852</v>
+        <v>0.6524631384984843</v>
       </c>
       <c r="G21" t="n">
-        <v>0.70074604613022</v>
+        <v>0.6459847687867095</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6886814290716819</v>
+        <v>0.6257243428905268</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6836952813536689</v>
+        <v>0.6511174271515379</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6950685949100348</v>
+        <v>0.6591962576349811</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7566051517958882</v>
+        <v>0.7454987499967036</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7567724471211423</v>
+        <v>0.7518603892793625</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4415624542622453</v>
+        <v>0.4721061307266217</v>
       </c>
       <c r="N21" t="n">
-        <v>0.523076881472718</v>
+        <v>0.6095625027455085</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5215710020730894</v>
+        <v>0.6019390730147898</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6049498478716956</v>
+        <v>0.6819022094420403</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.540369605551439</v>
+        <v>0.5583864418710353</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5218349987358</v>
+        <v>0.6126632523845288</v>
       </c>
       <c r="S21" t="n">
-        <v>0.463966848614386</v>
+        <v>0.5251169128802475</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4695402944197104</v>
+        <v>0.5538554470252111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7551825081138847</v>
+        <v>0.7279790635945093</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6483003363045322</v>
+        <v>0.63164151048366</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7066344977893578</v>
+        <v>0.7258549462856398</v>
       </c>
       <c r="D22" t="n">
-        <v>0.72374259705671</v>
+        <v>0.6957215302013862</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7618011791778777</v>
+        <v>0.7309544014569138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.741731326370787</v>
+        <v>0.7085854777554953</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7548957511130576</v>
+        <v>0.7382069636385599</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7706886756242785</v>
+        <v>0.7453671435752712</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7080898345656056</v>
+        <v>0.6845372329374994</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7198761138093864</v>
+        <v>0.7024382726121409</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7525263105631745</v>
+        <v>0.7386120265257633</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7611900741599519</v>
+        <v>0.7418354566363291</v>
       </c>
       <c r="M22" t="n">
-        <v>0.406963800135586</v>
+        <v>0.4048483146261372</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5347662124824397</v>
+        <v>0.5198186792448729</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5370564301715125</v>
+        <v>0.5231278144842531</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5409304268400305</v>
+        <v>0.5434100509541675</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5171795510816222</v>
+        <v>0.5158230465475894</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5665038976692279</v>
+        <v>0.555780626933553</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4862678914267321</v>
+        <v>0.4812550376685296</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4688497903669312</v>
+        <v>0.4679541392810123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5421625118492944</v>
+        <v>0.5372023173806174</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4924242650219073</v>
+        <v>0.4797763735494902</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5096027655710644</v>
+        <v>0.5048923859684304</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4788169140319083</v>
+        <v>0.4714807945649174</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5087830635878321</v>
+        <v>0.5017952665195354</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5572861744060672</v>
+        <v>0.547736961618743</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4902679612496359</v>
+        <v>0.4823041083996611</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5082001838874786</v>
+        <v>0.5023126024945858</v>
       </c>
       <c r="I23" t="n">
-        <v>0.485770960542391</v>
+        <v>0.4732268172966089</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4799983326458883</v>
+        <v>0.4703778459584551</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6168890843146081</v>
+        <v>0.6049451737399705</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6283887290471727</v>
+        <v>0.6150041617051769</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5015132044114883</v>
+        <v>0.4913068186834594</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5341535667590919</v>
+        <v>0.5313587196510736</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5098233525685361</v>
+        <v>0.5254568027826721</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5400929527683201</v>
+        <v>0.5283771397028556</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5553309710971857</v>
+        <v>0.5457353185183024</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5773698270709695</v>
+        <v>0.5657478792648233</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5206469801020783</v>
+        <v>0.5164855698493042</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6016854068751243</v>
+        <v>0.5927548540498601</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4606386004820265</v>
+        <v>0.6227130008754073</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4437653402000555</v>
+        <v>0.5525175473866051</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4509412119562428</v>
+        <v>0.5246819178336288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4641549091076975</v>
+        <v>0.5702095402609327</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4611112954030109</v>
+        <v>0.5360235058818593</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4787658466153128</v>
+        <v>0.5570093961942018</v>
       </c>
       <c r="G24" t="n">
-        <v>0.464147700723164</v>
+        <v>0.5326432105365684</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4766077139071904</v>
+        <v>0.5724167945561351</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4655130292667526</v>
+        <v>0.5667866851794922</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4490965294440203</v>
+        <v>0.566830643643023</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5658096262066068</v>
+        <v>0.6013832828547362</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4698154247749966</v>
+        <v>0.6470458774103507</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4364845252332633</v>
+        <v>0.5593305362685399</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4298622578068669</v>
+        <v>0.6047819449127108</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4386035124854862</v>
+        <v>0.5543872524083107</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4718990702209439</v>
+        <v>0.6247945431867927</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4117292251682798</v>
+        <v>0.5312768264917755</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4240343036612594</v>
+        <v>0.5955892954159908</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4268086703395314</v>
+        <v>0.5448427986807785</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4455644323450986</v>
+        <v>0.606938914337912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5280832822287876</v>
+        <v>0.5318201020489817</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4927245575474619</v>
+        <v>0.485912663781892</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5081807695022414</v>
+        <v>0.5054550481800106</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4998816293287841</v>
+        <v>0.5104797958665507</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5043756970157024</v>
+        <v>0.4963766057865647</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5160218270739831</v>
+        <v>0.5023269315418529</v>
       </c>
       <c r="G25" t="n">
-        <v>0.508474421743137</v>
+        <v>0.5081306695494038</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5306747644383567</v>
+        <v>0.5388791603435333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4850401085730763</v>
+        <v>0.481792844670246</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4859812595547893</v>
+        <v>0.4882098631931197</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7434634966153777</v>
+        <v>0.6880852164101487</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7546322252309065</v>
+        <v>0.700751145480635</v>
       </c>
       <c r="M25" t="n">
-        <v>0.422655114408188</v>
+        <v>0.437028378585184</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5563973455920194</v>
+        <v>0.5483339480536437</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5592529013063213</v>
+        <v>0.5483339480536437</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5079631062356105</v>
+        <v>0.4980719006620988</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4741668901947714</v>
+        <v>0.4794286800023467</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5578802813455066</v>
+        <v>0.543231420271636</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4652060793676424</v>
+        <v>0.487275943874914</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4575266537847361</v>
+        <v>0.4742222327510377</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -3097,28 +3097,28 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.1666666666666667</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0.1666666666666667</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0.25</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3212,31 +3212,31 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.2</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0.8</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G20" t="n">
         <v>0.6000000000000001</v>
@@ -3289,16 +3289,16 @@
         <v>0.8</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="J20" t="n">
         <v>0.6000000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3327,40 +3327,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7777777777777779</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7777777777777779</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7777777777777779</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7777777777777779</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7777777777777779</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -3372,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C22" t="n">
         <v>0.6000000000000001</v>
@@ -3419,10 +3419,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3537,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2142857142857143</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3758,69 +3758,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.8999999999999999</v>
       </c>
-      <c r="B2" t="n">
+      <c r="L2" t="n">
         <v>0.8999999999999999</v>
       </c>
-      <c r="C2" t="n">
+      <c r="M2" t="n">
         <v>0.8999999999999999</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7999999999999999</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0.8333333333333333</v>
@@ -3832,7 +3832,7 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.6666666666666666</v>
@@ -3844,37 +3844,37 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0.8333333333333333</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T3" t="n">
         <v>0.8333333333333333</v>
@@ -3882,55 +3882,55 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="I4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
@@ -3939,30 +3939,30 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="B5" t="n">
         <v>0.7999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0.9999999999999999</v>
@@ -3995,7 +3995,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S5" t="n">
         <v>0.9999999999999999</v>
@@ -4006,250 +4006,250 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -4440,96 +4440,96 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.75</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="E14" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="H14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14" t="n">
         <v>0.3333333333333333</v>
@@ -4538,205 +4538,205 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="C17" t="n">
+      <c r="F17" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="I17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N17" t="n">
         <v>0.8333333333333333</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R17" t="n">
         <v>0.6666666666666666</v>
@@ -4745,163 +4745,163 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.75</v>
       </c>
-      <c r="C18" t="n">
+      <c r="F18" t="n">
         <v>0.75</v>
       </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
         <v>0.75</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
         <v>0.75</v>
       </c>
-      <c r="L18" t="n">
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.75</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8947368421052628</v>
+        <v>0.8</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9473684210526312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.2</v>
       </c>
-      <c r="B20" t="n">
+      <c r="F20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="C20" t="n">
+      <c r="J20" t="n">
         <v>0.4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.2</v>
@@ -4910,66 +4910,66 @@
         <v>0.2</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0.8</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7777777777777779</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -4981,10 +4981,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8888888888888891</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
@@ -4998,34 +4998,34 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B22" t="n">
         <v>0.6000000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K22" t="n">
         <v>0.2</v>
@@ -5034,214 +5034,214 @@
         <v>0.2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9285714285714283</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9285714285714283</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8571428571428569</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8571428571428569</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9285714285714283</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8571428571428569</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7857142857142855</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8571428571428569</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7857142857142855</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9285714285714283</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8571428571428569</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8571428571428569</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9285714285714283</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9285714285714283</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8571428571428569</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9285714285714283</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7857142857142855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5367,69 +5367,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0.1666666666666667</v>
@@ -5441,7 +5441,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.3333333333333333</v>
@@ -5453,37 +5453,37 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0.1666666666666667</v>
@@ -5491,72 +5491,72 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -5615,250 +5615,250 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6049,498 +6049,498 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6607,126 +6607,126 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6734,123 +6734,123 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2142857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outcome.xlsx
+++ b/outcome.xlsx
@@ -558,13 +558,13 @@
         <v>0.4148634720009437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4111961839773998</v>
+        <v>0.4111962780254338</v>
       </c>
       <c r="H2" t="n">
         <v>0.4649771727073432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4190412048199675</v>
+        <v>0.4190454233468386</v>
       </c>
       <c r="J2" t="n">
         <v>0.4015480865243317</v>
@@ -573,7 +573,7 @@
         <v>0.5810810361801232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5779867579821309</v>
+        <v>0.577985408541052</v>
       </c>
       <c r="M2" t="n">
         <v>0.4381495349012476</v>
@@ -632,7 +632,7 @@
         <v>0.4140636692215262</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4965264654031827</v>
+        <v>0.4964473744614852</v>
       </c>
       <c r="L3" t="n">
         <v>0.5255588756013567</v>
@@ -644,7 +644,7 @@
         <v>0.4223259120785909</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4152323162048348</v>
+        <v>0.4152903929021241</v>
       </c>
       <c r="P3" t="n">
         <v>0.4336462839194212</v>
@@ -721,7 +721,7 @@
         <v>0.5583345747578501</v>
       </c>
       <c r="T4" t="n">
-        <v>0.518366576353141</v>
+        <v>0.5183702085664671</v>
       </c>
     </row>
     <row r="5">
@@ -747,7 +747,7 @@
         <v>0.4632589634198629</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4994899070649733</v>
+        <v>0.4994893997398512</v>
       </c>
       <c r="I5" t="n">
         <v>0.4652058714484038</v>
@@ -756,10 +756,10 @@
         <v>0.4717837331201826</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5464119702237328</v>
+        <v>0.5464114696887916</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5542817954131412</v>
+        <v>0.5542805228426172</v>
       </c>
       <c r="M5" t="n">
         <v>0.4753344692713639</v>
@@ -856,7 +856,7 @@
         <v>0.4860529287193327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5146103639835123</v>
+        <v>0.5146020060144192</v>
       </c>
       <c r="D7" t="n">
         <v>0.4932988503612561</v>
@@ -865,13 +865,13 @@
         <v>0.5133647267523186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5141464598817855</v>
+        <v>0.5141468035174196</v>
       </c>
       <c r="G7" t="n">
         <v>0.5198189246487394</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5278862847185244</v>
+        <v>0.5278816340039282</v>
       </c>
       <c r="I7" t="n">
         <v>0.5233963373923832</v>
@@ -912,64 +912,64 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5484086879939601</v>
+        <v>0.5483999303522471</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4201043312908262</v>
+        <v>0.4201208488638432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4369724646771717</v>
+        <v>0.4369757877280161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4568503724392978</v>
+        <v>0.4568518896258932</v>
       </c>
       <c r="E8" t="n">
-        <v>0.495488871588055</v>
+        <v>0.4960423944911876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4340299890919204</v>
+        <v>0.4340340800077736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4591630784173985</v>
+        <v>0.459170723780937</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4693330752061673</v>
+        <v>0.4693265902958322</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4345652181585001</v>
+        <v>0.4345554874029403</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4325914599301441</v>
+        <v>0.4325907086386526</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469166064487656</v>
+        <v>0.4691390273068581</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4744639959982984</v>
+        <v>0.4744406299605449</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4853740163510266</v>
+        <v>0.4853711898029882</v>
       </c>
       <c r="N8" t="n">
-        <v>0.447103724269606</v>
+        <v>0.4470883670804152</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4829723277220896</v>
+        <v>0.4829569906899688</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4524601510286987</v>
+        <v>0.4524673090793422</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4568387449730721</v>
+        <v>0.4568542665460342</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4573188122982595</v>
+        <v>0.4573302837766264</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5041688953973228</v>
+        <v>0.5041583490649285</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5148415897192925</v>
+        <v>0.5148653050720214</v>
       </c>
     </row>
     <row r="9">
@@ -980,7 +980,7 @@
         <v>0.3903861872220716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3818174240567664</v>
+        <v>0.3818160302015171</v>
       </c>
       <c r="D9" t="n">
         <v>0.3816337854770413</v>
@@ -1090,7 +1090,7 @@
         <v>0.5582872818089715</v>
       </c>
       <c r="S10" t="n">
-        <v>0.41884823462441</v>
+        <v>0.4188516726672112</v>
       </c>
       <c r="T10" t="n">
         <v>0.4420101760862349</v>
@@ -1143,7 +1143,7 @@
         <v>0.5157387329890643</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4885293753220654</v>
+        <v>0.4885259832172789</v>
       </c>
       <c r="Q11" t="n">
         <v>0.509521471625932</v>
@@ -1152,7 +1152,7 @@
         <v>0.530145186608003</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5075890425555887</v>
+        <v>0.5075933390840407</v>
       </c>
       <c r="T11" t="n">
         <v>0.4907902218269166</v>
@@ -1166,7 +1166,7 @@
         <v>0.4343257563668053</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4400021854138597</v>
+        <v>0.4401009210101776</v>
       </c>
       <c r="D12" t="n">
         <v>0.4899889098983636</v>
@@ -1193,7 +1193,7 @@
         <v>0.4721722775491645</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4671820173419505</v>
+        <v>0.4671775315267772</v>
       </c>
       <c r="M12" t="n">
         <v>0.4189589360662266</v>
@@ -1222,64 +1222,64 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6156399917045358</v>
+        <v>0.615733270013076</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4856082944437494</v>
+        <v>0.4856138892634393</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5062381327114299</v>
+        <v>0.5062379042707807</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5580880073343037</v>
+        <v>0.5580822096549373</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5497090968278388</v>
+        <v>0.5497032991484723</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5526955798610752</v>
+        <v>0.5526897821817087</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5618860500192571</v>
+        <v>0.5618802523398906</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6017861367929975</v>
+        <v>0.6017864482280686</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5539409040940411</v>
+        <v>0.5539351064146746</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5525030224911361</v>
+        <v>0.5524988520226258</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6356598330268971</v>
+        <v>0.6355209247231365</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6303311672906678</v>
+        <v>0.6303292111793214</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5382464363818952</v>
+        <v>0.5382448630046839</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5229165781227594</v>
+        <v>0.5229159847069513</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5229165781227594</v>
+        <v>0.5229159847069513</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5274250800031935</v>
+        <v>0.5274210707400901</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5093905008204467</v>
+        <v>0.5093918021833919</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5488990888406893</v>
+        <v>0.5489009353600404</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5400302046998144</v>
+        <v>0.5400298442811851</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5803069131177069</v>
+        <v>0.5803071011132628</v>
       </c>
     </row>
     <row r="14">
@@ -1320,7 +1320,7 @@
         <v>0.7107739175472697</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4540991734919828</v>
+        <v>0.4540964500893422</v>
       </c>
       <c r="N14" t="n">
         <v>0.5210208354470535</v>
@@ -1338,7 +1338,7 @@
         <v>0.5191832954028202</v>
       </c>
       <c r="S14" t="n">
-        <v>0.452285897652024</v>
+        <v>0.4522792883258312</v>
       </c>
       <c r="T14" t="n">
         <v>0.520683349068353</v>
@@ -1462,7 +1462,7 @@
         <v>0.6101141470043684</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4634165369514615</v>
+        <v>0.4634129973973681</v>
       </c>
       <c r="T16" t="n">
         <v>0.4956791699980606</v>
@@ -1485,7 +1485,7 @@
         <v>0.6160778449649243</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6028379557819472</v>
+        <v>0.6028228641701703</v>
       </c>
       <c r="G17" t="n">
         <v>0.614667481347437</v>
@@ -1506,7 +1506,7 @@
         <v>0.6322297326456885</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5267655715322915</v>
+        <v>0.5267699538542033</v>
       </c>
       <c r="N17" t="n">
         <v>0.5653430345696688</v>
@@ -1556,13 +1556,13 @@
         <v>0.5272293866289204</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5945528925317681</v>
+        <v>0.5945617253586006</v>
       </c>
       <c r="J18" t="n">
         <v>0.5336408326755742</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5514719963357586</v>
+        <v>0.5514464904615725</v>
       </c>
       <c r="L18" t="n">
         <v>0.5442949056547853</v>
@@ -1589,7 +1589,7 @@
         <v>0.4473321545721157</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4837500086750408</v>
+        <v>0.4837626622553999</v>
       </c>
     </row>
     <row r="19">
@@ -1624,7 +1624,7 @@
         <v>0.6630167499820745</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6968479144501846</v>
+        <v>0.6968441286354603</v>
       </c>
       <c r="L19" t="n">
         <v>0.6957859067483753</v>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6741330007916806</v>
+        <v>0.6741464370609949</v>
       </c>
       <c r="B20" t="n">
         <v>0.5851977555888518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6351379685810258</v>
+        <v>0.6351987235889595</v>
       </c>
       <c r="D20" t="n">
         <v>0.6507086673196401</v>
@@ -1710,7 +1710,7 @@
         <v>0.5516959788935627</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5351606134980703</v>
+        <v>0.5351603776317266</v>
       </c>
       <c r="T20" t="n">
         <v>0.504321003920339</v>
@@ -1772,7 +1772,7 @@
         <v>0.6126632523845288</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5251169128802475</v>
+        <v>0.5251026786340629</v>
       </c>
       <c r="T21" t="n">
         <v>0.5538554470252111</v>
@@ -1792,7 +1792,7 @@
         <v>0.6957215302013862</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7309544014569138</v>
+        <v>0.7309551391464066</v>
       </c>
       <c r="F22" t="n">
         <v>0.7085854777554953</v>
@@ -1842,64 +1842,64 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5372023173806174</v>
+        <v>0.5372127186575011</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4797763735494902</v>
+        <v>0.4797904516848613</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5048923859684304</v>
+        <v>0.5048738993945819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4714807945649174</v>
+        <v>0.4714887145704538</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5017952665195354</v>
+        <v>0.501795342071261</v>
       </c>
       <c r="F23" t="n">
-        <v>0.547736961618743</v>
+        <v>0.5477428096543799</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4823041083996611</v>
+        <v>0.4823068352284136</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5023126024945858</v>
+        <v>0.5023159438931061</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4732268172966089</v>
+        <v>0.4732384202311751</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4703778459584551</v>
+        <v>0.4703802444684504</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6049451737399705</v>
+        <v>0.604960732183772</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6150041617051769</v>
+        <v>0.6150159722025068</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4913068186834594</v>
+        <v>0.4913089879137149</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5313587196510736</v>
+        <v>0.5313610155934757</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5254568027826721</v>
+        <v>0.5254602050780476</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5283771397028556</v>
+        <v>0.5283934282655893</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5457353185183024</v>
+        <v>0.5457400593999423</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5657478792648233</v>
+        <v>0.5657406175140035</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5164855698493042</v>
+        <v>0.5164919210322892</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5927548540498601</v>
+        <v>0.5927566809804973</v>
       </c>
     </row>
     <row r="24">
@@ -3758,126 +3758,126 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>0.3333333333333333</v>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -3939,317 +3939,317 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -4302,16 +4302,16 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4322,28 +4322,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4381,55 +4381,55 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -4440,188 +4440,188 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.75</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -4680,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -4691,31 +4691,31 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>0.8333333333333333</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9999999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.9999999999999999</v>
@@ -4724,28 +4724,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="P17" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="R17" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -4753,16 +4753,16 @@
         <v>0.75</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
         <v>0.75</v>
@@ -4771,13 +4771,13 @@
         <v>0.75</v>
       </c>
       <c r="H18" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I18" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -4786,28 +4786,28 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R18" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
@@ -4815,10 +4815,10 @@
         <v>0.4</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D19" t="n">
         <v>0.6000000000000001</v>
@@ -4860,16 +4860,16 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R19" t="n">
         <v>0.8</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
@@ -4910,7 +4910,7 @@
         <v>0.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -4928,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -5034,28 +5034,28 @@
         <v>0.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="R22" t="n">
         <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -5063,31 +5063,31 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -5096,25 +5096,25 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
@@ -5184,34 +5184,34 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.5</v>
@@ -5220,28 +5220,28 @@
         <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -5367,126 +5367,126 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5548,317 +5548,317 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.4</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -5911,16 +5911,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5931,28 +5931,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -5990,55 +5990,55 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -6049,188 +6049,188 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -6300,31 +6300,31 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -6333,28 +6333,28 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -6362,16 +6362,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -6380,13 +6380,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -6395,28 +6395,28 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
@@ -6424,10 +6424,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -6469,16 +6469,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -6537,10 +6537,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -6643,28 +6643,28 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
@@ -6672,31 +6672,31 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6705,25 +6705,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -6793,34 +6793,34 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -6829,28 +6829,28 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
